--- a/referees.xlsx
+++ b/referees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weige\Operations Research\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d738ce2930000d4f/Desktop/ntuimm/Operation Research/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FF5FC9-F431-4AAA-8470-DFC3B0D0EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{C7FF5FC9-F431-4AAA-8470-DFC3B0D0EA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A74C2C7C-CF8B-4C0D-A297-F49B5E4A40C5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" activeTab="1" xr2:uid="{4E9AC6C0-1F1D-4582-A86E-099B62974523}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4E9AC6C0-1F1D-4582-A86E-099B62974523}"/>
   </bookViews>
   <sheets>
     <sheet name="ref_team" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,8 @@
         <color theme="1"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>物理</t>
+      </rPr>
+      <t>法律</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -142,18 +141,6 @@
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>法律</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
       <t>化學</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -719,6 +706,10 @@
       </rPr>
       <t>財金</t>
     </r>
+  </si>
+  <si>
+    <t>中文物理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -816,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,7 +819,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,7 +840,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,7 +856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1164,21 +1154,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F262474D-EA9C-4581-B7C9-BD66C14E2FB3}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.92578125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="13.5">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1186,7 +1176,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1194,7 +1184,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1202,7 +1192,7 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1210,7 +1200,7 @@
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1218,7 +1208,7 @@
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1226,23 +1216,23 @@
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>21</v>
+      <c r="B7" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>24</v>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1250,7 +1240,7 @@
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1258,23 +1248,23 @@
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>22</v>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1282,28 +1272,28 @@
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="2"/>
@@ -1324,38 +1314,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC35D775-5DC6-458E-AEB7-E50B47BDAD01}">
   <dimension ref="A1:AB142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="13.59765625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="20.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="29.78515625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29.0703125" style="11" customWidth="1"/>
-    <col min="7" max="7" width="40.35546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="11" customWidth="1"/>
-    <col min="10" max="33" width="20.140625" style="11" customWidth="1"/>
-    <col min="34" max="16384" width="13.5703125" style="11"/>
+    <col min="1" max="1" width="20.09765625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="29.796875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="22.09765625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="25.8984375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="29.09765625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="40.3984375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="25.8984375" style="10" customWidth="1"/>
+    <col min="10" max="33" width="20.09765625" style="10" customWidth="1"/>
+    <col min="34" max="16384" width="13.59765625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="10" t="s">
+    </row>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
       <c r="C2" s="2"/>
@@ -1383,10 +1373,10 @@
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1417,10 +1407,10 @@
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6">
         <v>3</v>
       </c>
       <c r="C4" s="2"/>
@@ -1450,10 +1440,10 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
@@ -1479,10 +1469,10 @@
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="2"/>
@@ -1504,10 +1494,10 @@
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="6">
         <v>4</v>
       </c>
       <c r="C7" s="2"/>
@@ -1531,10 +1521,10 @@
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
@@ -1565,10 +1555,10 @@
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6">
         <v>3</v>
       </c>
       <c r="C9" s="2"/>
@@ -1595,10 +1585,10 @@
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="6">
         <v>2</v>
       </c>
       <c r="C10" s="2"/>
@@ -1621,10 +1611,10 @@
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="6">
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
@@ -1655,10 +1645,10 @@
       <c r="AB11" s="2"/>
     </row>
     <row r="12" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6">
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
@@ -1680,10 +1670,10 @@
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
@@ -1704,10 +1694,10 @@
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
         <v>2</v>
       </c>
       <c r="C14" s="2"/>
@@ -1737,10 +1727,10 @@
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6">
         <v>1</v>
       </c>
       <c r="C15" s="2"/>
@@ -1763,10 +1753,10 @@
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="6">
         <v>3</v>
       </c>
       <c r="C16" s="2"/>
@@ -1791,10 +1781,10 @@
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="6">
         <v>4</v>
       </c>
       <c r="C17" s="2"/>
@@ -1821,10 +1811,10 @@
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="2"/>
@@ -1850,10 +1840,10 @@
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="7">
+      <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="6">
         <v>4</v>
       </c>
       <c r="C19" s="2"/>
@@ -1880,10 +1870,10 @@
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="7">
+      <c r="A20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
@@ -1911,10 +1901,10 @@
       <c r="AB20" s="2"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="6">
         <v>3</v>
       </c>
       <c r="C21" s="2"/>
@@ -1937,10 +1927,10 @@
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="7">
+      <c r="A22" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6">
         <v>4</v>
       </c>
       <c r="C22" s="2"/>
@@ -1959,10 +1949,10 @@
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7">
+      <c r="A23" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6">
         <v>4</v>
       </c>
       <c r="C23" s="2"/>
@@ -1986,10 +1976,10 @@
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="7">
+      <c r="A24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="2"/>
@@ -2018,10 +2008,10 @@
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="7">
+      <c r="A25" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="6">
         <v>3</v>
       </c>
       <c r="C25" s="2"/>
@@ -2048,10 +2038,10 @@
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="1:28" ht="15.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="7">
+      <c r="A26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6">
         <v>3</v>
       </c>
       <c r="C26" s="2"/>
@@ -2071,11 +2061,11 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
     </row>
-    <row r="27" spans="1:28" ht="15">
-      <c r="A27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="7">
+    <row r="27" spans="1:28" ht="14.5">
+      <c r="A27" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="6">
         <v>2</v>
       </c>
       <c r="C27" s="2"/>
@@ -2098,11 +2088,11 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
     </row>
-    <row r="28" spans="1:28" ht="15">
-      <c r="A28" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="7">
+    <row r="28" spans="1:28" ht="14.5">
+      <c r="A28" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="6">
         <v>4</v>
       </c>
       <c r="C28" s="2"/>
@@ -2125,11 +2115,11 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
     </row>
-    <row r="29" spans="1:28" ht="15">
-      <c r="A29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="7">
+    <row r="29" spans="1:28" ht="14.5">
+      <c r="A29" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="6">
         <v>1</v>
       </c>
       <c r="C29" s="2"/>
@@ -2148,11 +2138,11 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="1:28" ht="15">
-      <c r="A30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30" s="7">
+    <row r="30" spans="1:28" ht="14.5">
+      <c r="A30" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="6">
         <v>3</v>
       </c>
       <c r="C30" s="2"/>
@@ -2172,11 +2162,11 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="1:28" ht="15">
-      <c r="A31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" s="7">
+    <row r="31" spans="1:28" ht="14.5">
+      <c r="A31" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="6">
         <v>3</v>
       </c>
       <c r="C31" s="2"/>
@@ -2196,11 +2186,11 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="1:28" ht="15">
-      <c r="A32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="7">
+    <row r="32" spans="1:28" ht="14.5">
+      <c r="A32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6">
         <v>2</v>
       </c>
       <c r="C32" s="2"/>
@@ -2222,11 +2212,11 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:28" ht="15">
-      <c r="A33" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B33" s="7">
+    <row r="33" spans="1:28" ht="14.5">
+      <c r="A33" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" s="6">
         <v>3</v>
       </c>
       <c r="C33" s="2"/>
@@ -2252,11 +2242,11 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
     </row>
-    <row r="34" spans="1:28" ht="15">
-      <c r="A34" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="7">
+    <row r="34" spans="1:28" ht="14.5">
+      <c r="A34" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="6">
         <v>4</v>
       </c>
       <c r="C34" s="2"/>
@@ -2279,11 +2269,11 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
     </row>
-    <row r="35" spans="1:28" ht="15">
-      <c r="A35" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="7">
+    <row r="35" spans="1:28" ht="14.5">
+      <c r="A35" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="6">
         <v>2</v>
       </c>
       <c r="C35" s="2"/>
@@ -2308,11 +2298,11 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
     </row>
-    <row r="36" spans="1:28" ht="15">
-      <c r="A36" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="7">
+    <row r="36" spans="1:28" ht="14.5">
+      <c r="A36" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="6">
         <v>2</v>
       </c>
       <c r="C36" s="2"/>
@@ -2341,11 +2331,11 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
     </row>
-    <row r="37" spans="1:28" ht="15">
-      <c r="A37" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="7">
+    <row r="37" spans="1:28" ht="14.5">
+      <c r="A37" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" s="6">
         <v>1</v>
       </c>
       <c r="C37" s="2"/>
@@ -2375,11 +2365,11 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
     </row>
-    <row r="38" spans="1:28" ht="15">
-      <c r="A38" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="7">
+    <row r="38" spans="1:28" ht="14.5">
+      <c r="A38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="6">
         <v>4</v>
       </c>
       <c r="C38" s="2"/>
@@ -2407,11 +2397,11 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
-    <row r="39" spans="1:28" ht="15">
-      <c r="A39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="7">
+    <row r="39" spans="1:28" ht="14.5">
+      <c r="A39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="6">
         <v>4</v>
       </c>
       <c r="C39" s="2"/>
@@ -2434,317 +2424,317 @@
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="B40" s="12"/>
+      <c r="B40" s="11"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="B41" s="12"/>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="B42" s="12"/>
+      <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="B43" s="12"/>
+      <c r="B43" s="11"/>
     </row>
     <row r="44" spans="1:28">
       <c r="A44" s="2"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="11"/>
     </row>
     <row r="45" spans="1:28">
       <c r="A45" s="2"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="11"/>
     </row>
     <row r="46" spans="1:28">
       <c r="A46" s="2"/>
-      <c r="B46" s="12"/>
+      <c r="B46" s="11"/>
     </row>
     <row r="47" spans="1:28">
       <c r="A47" s="2"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="11"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="B48" s="12"/>
+      <c r="B48" s="11"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="12"/>
+      <c r="B49" s="11"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="12"/>
+      <c r="B50" s="11"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="12"/>
+      <c r="B51" s="11"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="12"/>
+      <c r="B52" s="11"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="12"/>
+      <c r="B53" s="11"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="12"/>
+      <c r="B54" s="11"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="12"/>
+      <c r="B55" s="11"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="12"/>
+      <c r="B56" s="11"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="12"/>
+      <c r="B57" s="11"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="12"/>
+      <c r="B58" s="11"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="12"/>
+      <c r="B59" s="11"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="12"/>
+      <c r="B60" s="11"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="12"/>
+      <c r="B61" s="11"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="12"/>
+      <c r="B62" s="11"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="12"/>
+      <c r="B63" s="11"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="12"/>
+      <c r="B64" s="11"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="12"/>
+      <c r="B65" s="11"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="12"/>
+      <c r="B66" s="11"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="12"/>
+      <c r="B67" s="11"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="12"/>
+      <c r="B68" s="11"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="12"/>
+      <c r="B69" s="11"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="12"/>
+      <c r="B70" s="11"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="12"/>
+      <c r="B71" s="11"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="12"/>
+      <c r="B72" s="11"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="12"/>
+      <c r="B73" s="11"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="12"/>
+      <c r="B74" s="11"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="12"/>
+      <c r="B75" s="11"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="12"/>
+      <c r="B76" s="11"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="12"/>
+      <c r="B77" s="11"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="12"/>
+      <c r="B78" s="11"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="12"/>
+      <c r="B79" s="11"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="12"/>
+      <c r="B80" s="11"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="12"/>
+      <c r="B81" s="11"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="12"/>
+      <c r="B82" s="11"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="12"/>
+      <c r="B83" s="11"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="12"/>
+      <c r="B84" s="11"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="12"/>
+      <c r="B85" s="11"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="12"/>
+      <c r="B86" s="11"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="12"/>
+      <c r="B87" s="11"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="12"/>
+      <c r="B88" s="11"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="12"/>
+      <c r="B89" s="11"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="12"/>
+      <c r="B90" s="11"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="12"/>
+      <c r="B91" s="11"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="12"/>
+      <c r="B92" s="11"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="12"/>
+      <c r="B93" s="11"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="12"/>
+      <c r="B94" s="11"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="12"/>
+      <c r="B95" s="11"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="12"/>
+      <c r="B96" s="11"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="12"/>
+      <c r="B97" s="11"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="12"/>
+      <c r="B98" s="11"/>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="12"/>
+      <c r="B99" s="11"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="12"/>
+      <c r="B100" s="11"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="12"/>
+      <c r="B101" s="11"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="12"/>
+      <c r="B102" s="11"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="12"/>
+      <c r="B103" s="11"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="12"/>
+      <c r="B104" s="11"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="12"/>
+      <c r="B105" s="11"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="12"/>
+      <c r="B106" s="11"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="12"/>
+      <c r="B107" s="11"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="12"/>
+      <c r="B108" s="11"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="12"/>
+      <c r="B109" s="11"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="12"/>
+      <c r="B110" s="11"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="12"/>
+      <c r="B111" s="11"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="12"/>
+      <c r="B112" s="11"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="12"/>
+      <c r="B113" s="11"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="12"/>
+      <c r="B114" s="11"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="12"/>
+      <c r="B115" s="11"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="12"/>
+      <c r="B116" s="11"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="12"/>
+      <c r="B117" s="11"/>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="12"/>
+      <c r="B118" s="11"/>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="12"/>
+      <c r="B119" s="11"/>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="12"/>
+      <c r="B120" s="11"/>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="12"/>
+      <c r="B121" s="11"/>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="12"/>
+      <c r="B122" s="11"/>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="12"/>
+      <c r="B123" s="11"/>
     </row>
     <row r="124" spans="2:2">
-      <c r="B124" s="12"/>
+      <c r="B124" s="11"/>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="12"/>
+      <c r="B125" s="11"/>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="12"/>
+      <c r="B126" s="11"/>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="12"/>
+      <c r="B127" s="11"/>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="12"/>
+      <c r="B128" s="11"/>
     </row>
     <row r="129" spans="2:2">
-      <c r="B129" s="12"/>
+      <c r="B129" s="11"/>
     </row>
     <row r="130" spans="2:2">
-      <c r="B130" s="12"/>
+      <c r="B130" s="11"/>
     </row>
     <row r="131" spans="2:2">
-      <c r="B131" s="12"/>
+      <c r="B131" s="11"/>
     </row>
     <row r="132" spans="2:2">
-      <c r="B132" s="12"/>
+      <c r="B132" s="11"/>
     </row>
     <row r="133" spans="2:2">
-      <c r="B133" s="12"/>
+      <c r="B133" s="11"/>
     </row>
     <row r="134" spans="2:2">
-      <c r="B134" s="12"/>
+      <c r="B134" s="11"/>
     </row>
     <row r="135" spans="2:2">
-      <c r="B135" s="12"/>
+      <c r="B135" s="11"/>
     </row>
     <row r="136" spans="2:2">
-      <c r="B136" s="12"/>
+      <c r="B136" s="11"/>
     </row>
     <row r="137" spans="2:2">
-      <c r="B137" s="12"/>
+      <c r="B137" s="11"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="12"/>
+      <c r="B138" s="11"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="12"/>
+      <c r="B139" s="11"/>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="12"/>
+      <c r="B140" s="11"/>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="12"/>
+      <c r="B141" s="11"/>
     </row>
     <row r="142" spans="2:2">
-      <c r="B142" s="12"/>
+      <c r="B142" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
